--- a/apps/imputation/Imputation Placement.xlsx
+++ b/apps/imputation/Imputation Placement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drjor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drjor\Documents\tinsel\apps\imputation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1DB82-F389-43E2-A60B-C655EBA15715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139A887-F652-4F7E-9060-5E2B3446CA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0C236103-F992-4580-ADEB-69FDAD861B74}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>Core 0</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>3,0</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E2218-A1A9-45C6-83A7-1D4D88E1E785}">
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2760,6 +2763,35 @@
         <v>31</v>
       </c>
     </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/apps/imputation/Imputation Placement.xlsx
+++ b/apps/imputation/Imputation Placement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drjor\Documents\tinsel\apps\imputation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139A887-F652-4F7E-9060-5E2B3446CA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E13D51-0134-44F0-B0F5-BF59A5367CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0C236103-F992-4580-ADEB-69FDAD861B74}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>Core 0</t>
   </si>
@@ -92,6 +86,12 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>Core 2</t>
+  </si>
+  <si>
+    <t>Core 3</t>
+  </si>
 </sst>
 </file>
 
@@ -106,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,11 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E2218-A1A9-45C6-83A7-1D4D88E1E785}">
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N119" sqref="N119"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -704,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -712,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -720,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -728,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -736,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>7</v>
       </c>
@@ -744,2055 +758,4152 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="P27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L27" t="s">
+      <c r="R27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
+      <c r="V27" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>8</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="J29" s="2">
         <v>8</v>
       </c>
-      <c r="I29">
+      <c r="L29" s="3">
+        <v>32</v>
+      </c>
+      <c r="M29" s="3">
+        <v>40</v>
+      </c>
+      <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="P29" s="2">
         <v>8</v>
       </c>
-      <c r="L29">
+      <c r="R29" s="3">
+        <v>32</v>
+      </c>
+      <c r="S29" s="3">
+        <v>40</v>
+      </c>
+      <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="V29" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X29" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>9</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
+        <v>33</v>
+      </c>
+      <c r="G30" s="3">
+        <v>41</v>
+      </c>
+      <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="J30" s="2">
         <v>9</v>
       </c>
-      <c r="I30">
+      <c r="L30" s="3">
+        <v>33</v>
+      </c>
+      <c r="M30" s="3">
+        <v>41</v>
+      </c>
+      <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="J30">
+      <c r="P30" s="2">
         <v>9</v>
       </c>
-      <c r="L30">
+      <c r="R30" s="3">
+        <v>33</v>
+      </c>
+      <c r="S30" s="3">
+        <v>41</v>
+      </c>
+      <c r="U30" s="2">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="V30" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X30" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
+        <v>34</v>
+      </c>
+      <c r="G31" s="3">
+        <v>42</v>
+      </c>
+      <c r="I31" s="2">
         <v>2</v>
       </c>
-      <c r="G31">
+      <c r="J31" s="2">
         <v>10</v>
       </c>
-      <c r="I31">
+      <c r="L31" s="3">
+        <v>34</v>
+      </c>
+      <c r="M31" s="3">
+        <v>42</v>
+      </c>
+      <c r="O31" s="2">
         <v>2</v>
       </c>
-      <c r="J31">
+      <c r="P31" s="2">
         <v>10</v>
       </c>
-      <c r="L31">
+      <c r="R31" s="3">
+        <v>34</v>
+      </c>
+      <c r="S31" s="3">
+        <v>42</v>
+      </c>
+      <c r="U31" s="2">
         <v>2</v>
       </c>
-      <c r="M31">
+      <c r="V31" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X31" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>11</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="J32" s="2">
         <v>11</v>
       </c>
-      <c r="I32">
+      <c r="L32" s="3">
+        <v>35</v>
+      </c>
+      <c r="M32" s="3">
+        <v>43</v>
+      </c>
+      <c r="O32" s="2">
         <v>3</v>
       </c>
-      <c r="J32">
+      <c r="P32" s="2">
         <v>11</v>
       </c>
-      <c r="L32">
+      <c r="R32" s="3">
+        <v>35</v>
+      </c>
+      <c r="S32" s="3">
+        <v>43</v>
+      </c>
+      <c r="U32" s="2">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="V32" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X32" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>12</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44</v>
+      </c>
+      <c r="I33" s="2">
         <v>4</v>
       </c>
-      <c r="G33">
+      <c r="J33" s="2">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="L33" s="3">
+        <v>36</v>
+      </c>
+      <c r="M33" s="3">
+        <v>44</v>
+      </c>
+      <c r="O33" s="2">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="P33" s="2">
         <v>12</v>
       </c>
-      <c r="L33">
+      <c r="R33" s="3">
+        <v>36</v>
+      </c>
+      <c r="S33" s="3">
+        <v>44</v>
+      </c>
+      <c r="U33" s="2">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="V33" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X33" s="3">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>13</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
+        <v>37</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45</v>
+      </c>
+      <c r="I34" s="2">
         <v>5</v>
       </c>
-      <c r="G34">
+      <c r="J34" s="2">
         <v>13</v>
       </c>
-      <c r="I34">
+      <c r="L34" s="3">
+        <v>37</v>
+      </c>
+      <c r="M34" s="3">
+        <v>45</v>
+      </c>
+      <c r="O34" s="2">
         <v>5</v>
       </c>
-      <c r="J34">
+      <c r="P34" s="2">
         <v>13</v>
       </c>
-      <c r="L34">
+      <c r="R34" s="3">
+        <v>37</v>
+      </c>
+      <c r="S34" s="3">
+        <v>45</v>
+      </c>
+      <c r="U34" s="2">
         <v>5</v>
       </c>
-      <c r="M34">
+      <c r="V34" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X34" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>14</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
+        <v>38</v>
+      </c>
+      <c r="G35" s="3">
+        <v>46</v>
+      </c>
+      <c r="I35" s="2">
         <v>6</v>
       </c>
-      <c r="G35">
+      <c r="J35" s="2">
         <v>14</v>
       </c>
-      <c r="I35">
+      <c r="L35" s="3">
+        <v>38</v>
+      </c>
+      <c r="M35" s="3">
+        <v>46</v>
+      </c>
+      <c r="O35" s="2">
         <v>6</v>
       </c>
-      <c r="J35">
+      <c r="P35" s="2">
         <v>14</v>
       </c>
-      <c r="L35">
+      <c r="R35" s="3">
+        <v>38</v>
+      </c>
+      <c r="S35" s="3">
+        <v>46</v>
+      </c>
+      <c r="U35" s="2">
         <v>6</v>
       </c>
-      <c r="M35">
+      <c r="V35" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X35" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>7</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>15</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3">
+        <v>47</v>
+      </c>
+      <c r="I36" s="2">
         <v>7</v>
       </c>
-      <c r="G36">
+      <c r="J36" s="2">
         <v>15</v>
       </c>
-      <c r="I36">
+      <c r="L36" s="3">
+        <v>39</v>
+      </c>
+      <c r="M36" s="3">
+        <v>47</v>
+      </c>
+      <c r="O36" s="2">
         <v>7</v>
       </c>
-      <c r="J36">
+      <c r="P36" s="2">
         <v>15</v>
       </c>
-      <c r="L36">
+      <c r="R36" s="3">
+        <v>39</v>
+      </c>
+      <c r="S36" s="3">
+        <v>47</v>
+      </c>
+      <c r="U36" s="2">
         <v>7</v>
       </c>
-      <c r="M36">
+      <c r="V36" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+      <c r="X36" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="D38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="I38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" s="2"/>
+      <c r="L38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="O38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
+      <c r="P38" s="2"/>
+      <c r="R38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="U38" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="V38" s="2"/>
+      <c r="X38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>16</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>24</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
+        <v>48</v>
+      </c>
+      <c r="G40" s="3">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2">
         <v>16</v>
       </c>
-      <c r="G40">
+      <c r="J40" s="2">
         <v>24</v>
       </c>
-      <c r="I40">
+      <c r="L40" s="3">
+        <v>48</v>
+      </c>
+      <c r="M40" s="3">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2">
         <v>16</v>
       </c>
-      <c r="J40">
+      <c r="P40" s="2">
         <v>24</v>
       </c>
-      <c r="L40">
+      <c r="R40" s="3">
+        <v>48</v>
+      </c>
+      <c r="S40" s="3">
+        <v>56</v>
+      </c>
+      <c r="U40" s="2">
         <v>16</v>
       </c>
-      <c r="M40">
+      <c r="V40" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X40" s="3">
+        <v>48</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>25</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
+        <v>49</v>
+      </c>
+      <c r="G41" s="3">
+        <v>57</v>
+      </c>
+      <c r="I41" s="2">
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="J41" s="2">
         <v>25</v>
       </c>
-      <c r="I41">
+      <c r="L41" s="3">
+        <v>49</v>
+      </c>
+      <c r="M41" s="3">
+        <v>57</v>
+      </c>
+      <c r="O41" s="2">
         <v>17</v>
       </c>
-      <c r="J41">
+      <c r="P41" s="2">
         <v>25</v>
       </c>
-      <c r="L41">
+      <c r="R41" s="3">
+        <v>49</v>
+      </c>
+      <c r="S41" s="3">
+        <v>57</v>
+      </c>
+      <c r="U41" s="2">
         <v>17</v>
       </c>
-      <c r="M41">
+      <c r="V41" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X41" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>18</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>26</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
+        <v>50</v>
+      </c>
+      <c r="G42" s="3">
+        <v>58</v>
+      </c>
+      <c r="I42" s="2">
         <v>18</v>
       </c>
-      <c r="G42">
+      <c r="J42" s="2">
         <v>26</v>
       </c>
-      <c r="I42">
+      <c r="L42" s="3">
+        <v>50</v>
+      </c>
+      <c r="M42" s="3">
+        <v>58</v>
+      </c>
+      <c r="O42" s="2">
         <v>18</v>
       </c>
-      <c r="J42">
+      <c r="P42" s="2">
         <v>26</v>
       </c>
-      <c r="L42">
+      <c r="R42" s="3">
+        <v>50</v>
+      </c>
+      <c r="S42" s="3">
+        <v>58</v>
+      </c>
+      <c r="U42" s="2">
         <v>18</v>
       </c>
-      <c r="M42">
+      <c r="V42" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X42" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>27</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
+        <v>51</v>
+      </c>
+      <c r="G43" s="3">
+        <v>59</v>
+      </c>
+      <c r="I43" s="2">
         <v>19</v>
       </c>
-      <c r="G43">
+      <c r="J43" s="2">
         <v>27</v>
       </c>
-      <c r="I43">
+      <c r="L43" s="3">
+        <v>51</v>
+      </c>
+      <c r="M43" s="3">
+        <v>59</v>
+      </c>
+      <c r="O43" s="2">
         <v>19</v>
       </c>
-      <c r="J43">
+      <c r="P43" s="2">
         <v>27</v>
       </c>
-      <c r="L43">
+      <c r="R43" s="3">
+        <v>51</v>
+      </c>
+      <c r="S43" s="3">
+        <v>59</v>
+      </c>
+      <c r="U43" s="2">
         <v>19</v>
       </c>
-      <c r="M43">
+      <c r="V43" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X43" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>12</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>20</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>28</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
+        <v>52</v>
+      </c>
+      <c r="G44" s="3">
+        <v>60</v>
+      </c>
+      <c r="I44" s="2">
         <v>20</v>
       </c>
-      <c r="G44">
+      <c r="J44" s="2">
         <v>28</v>
       </c>
-      <c r="I44">
+      <c r="L44" s="3">
+        <v>52</v>
+      </c>
+      <c r="M44" s="3">
+        <v>60</v>
+      </c>
+      <c r="O44" s="2">
         <v>20</v>
       </c>
-      <c r="J44">
+      <c r="P44" s="2">
         <v>28</v>
       </c>
-      <c r="L44">
+      <c r="R44" s="3">
+        <v>52</v>
+      </c>
+      <c r="S44" s="3">
+        <v>60</v>
+      </c>
+      <c r="U44" s="2">
         <v>20</v>
       </c>
-      <c r="M44">
+      <c r="V44" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X44" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>21</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>29</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
+        <v>53</v>
+      </c>
+      <c r="G45" s="3">
+        <v>61</v>
+      </c>
+      <c r="I45" s="2">
         <v>21</v>
       </c>
-      <c r="G45">
+      <c r="J45" s="2">
         <v>29</v>
       </c>
-      <c r="I45">
+      <c r="L45" s="3">
+        <v>53</v>
+      </c>
+      <c r="M45" s="3">
+        <v>61</v>
+      </c>
+      <c r="O45" s="2">
         <v>21</v>
       </c>
-      <c r="J45">
+      <c r="P45" s="2">
         <v>29</v>
       </c>
-      <c r="L45">
+      <c r="R45" s="3">
+        <v>53</v>
+      </c>
+      <c r="S45" s="3">
+        <v>61</v>
+      </c>
+      <c r="U45" s="2">
         <v>21</v>
       </c>
-      <c r="M45">
+      <c r="V45" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X45" s="3">
+        <v>53</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>30</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
+        <v>54</v>
+      </c>
+      <c r="G46" s="3">
+        <v>62</v>
+      </c>
+      <c r="I46" s="2">
         <v>22</v>
       </c>
-      <c r="G46">
+      <c r="J46" s="2">
         <v>30</v>
       </c>
-      <c r="I46">
+      <c r="L46" s="3">
+        <v>54</v>
+      </c>
+      <c r="M46" s="3">
+        <v>62</v>
+      </c>
+      <c r="O46" s="2">
         <v>22</v>
       </c>
-      <c r="J46">
+      <c r="P46" s="2">
         <v>30</v>
       </c>
-      <c r="L46">
+      <c r="R46" s="3">
+        <v>54</v>
+      </c>
+      <c r="S46" s="3">
+        <v>62</v>
+      </c>
+      <c r="U46" s="2">
         <v>22</v>
       </c>
-      <c r="M46">
+      <c r="V46" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X46" s="3">
+        <v>54</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>23</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>31</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
+        <v>55</v>
+      </c>
+      <c r="G47" s="3">
+        <v>63</v>
+      </c>
+      <c r="I47" s="2">
         <v>23</v>
       </c>
-      <c r="G47">
+      <c r="J47" s="2">
         <v>31</v>
       </c>
-      <c r="I47">
+      <c r="L47" s="3">
+        <v>55</v>
+      </c>
+      <c r="M47" s="3">
+        <v>63</v>
+      </c>
+      <c r="O47" s="2">
         <v>23</v>
       </c>
-      <c r="J47">
+      <c r="P47" s="2">
         <v>31</v>
       </c>
-      <c r="L47">
+      <c r="R47" s="3">
+        <v>55</v>
+      </c>
+      <c r="S47" s="3">
+        <v>63</v>
+      </c>
+      <c r="U47" s="2">
         <v>23</v>
       </c>
-      <c r="M47">
+      <c r="V47" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
+      <c r="X47" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="P51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L51" t="s">
+      <c r="R51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
+      <c r="V51" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>8</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" s="3">
+        <v>40</v>
+      </c>
+      <c r="I53" s="2">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="J53" s="2">
         <v>8</v>
       </c>
-      <c r="I53">
+      <c r="L53" s="3">
+        <v>32</v>
+      </c>
+      <c r="M53" s="3">
+        <v>40</v>
+      </c>
+      <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="J53">
+      <c r="P53" s="2">
         <v>8</v>
       </c>
-      <c r="L53">
+      <c r="R53" s="3">
+        <v>32</v>
+      </c>
+      <c r="S53" s="3">
+        <v>40</v>
+      </c>
+      <c r="U53" s="2">
         <v>0</v>
       </c>
-      <c r="M53">
+      <c r="V53" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X53" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>17</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>1</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>9</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
+        <v>33</v>
+      </c>
+      <c r="G54" s="3">
+        <v>41</v>
+      </c>
+      <c r="I54" s="2">
         <v>1</v>
       </c>
-      <c r="G54">
+      <c r="J54" s="2">
         <v>9</v>
       </c>
-      <c r="I54">
+      <c r="L54" s="3">
+        <v>33</v>
+      </c>
+      <c r="M54" s="3">
+        <v>41</v>
+      </c>
+      <c r="O54" s="2">
         <v>1</v>
       </c>
-      <c r="J54">
+      <c r="P54" s="2">
         <v>9</v>
       </c>
-      <c r="L54">
+      <c r="R54" s="3">
+        <v>33</v>
+      </c>
+      <c r="S54" s="3">
+        <v>41</v>
+      </c>
+      <c r="U54" s="2">
         <v>1</v>
       </c>
-      <c r="M54">
+      <c r="V54" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X54" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>18</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>2</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>10</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3">
+        <v>42</v>
+      </c>
+      <c r="I55" s="2">
         <v>2</v>
       </c>
-      <c r="G55">
+      <c r="J55" s="2">
         <v>10</v>
       </c>
-      <c r="I55">
+      <c r="L55" s="3">
+        <v>34</v>
+      </c>
+      <c r="M55" s="3">
+        <v>42</v>
+      </c>
+      <c r="O55" s="2">
         <v>2</v>
       </c>
-      <c r="J55">
+      <c r="P55" s="2">
         <v>10</v>
       </c>
-      <c r="L55">
+      <c r="R55" s="3">
+        <v>34</v>
+      </c>
+      <c r="S55" s="3">
+        <v>42</v>
+      </c>
+      <c r="U55" s="2">
         <v>2</v>
       </c>
-      <c r="M55">
+      <c r="V55" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X55" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>19</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>11</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
+        <v>35</v>
+      </c>
+      <c r="G56" s="3">
+        <v>43</v>
+      </c>
+      <c r="I56" s="2">
         <v>3</v>
       </c>
-      <c r="G56">
+      <c r="J56" s="2">
         <v>11</v>
       </c>
-      <c r="I56">
+      <c r="L56" s="3">
+        <v>35</v>
+      </c>
+      <c r="M56" s="3">
+        <v>43</v>
+      </c>
+      <c r="O56" s="2">
         <v>3</v>
       </c>
-      <c r="J56">
+      <c r="P56" s="2">
         <v>11</v>
       </c>
-      <c r="L56">
+      <c r="R56" s="3">
+        <v>35</v>
+      </c>
+      <c r="S56" s="3">
+        <v>43</v>
+      </c>
+      <c r="U56" s="2">
         <v>3</v>
       </c>
-      <c r="M56">
+      <c r="V56" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X56" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>20</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>12</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
+        <v>36</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44</v>
+      </c>
+      <c r="I57" s="2">
         <v>4</v>
       </c>
-      <c r="G57">
+      <c r="J57" s="2">
         <v>12</v>
       </c>
-      <c r="I57">
+      <c r="L57" s="3">
+        <v>36</v>
+      </c>
+      <c r="M57" s="3">
+        <v>44</v>
+      </c>
+      <c r="O57" s="2">
         <v>4</v>
       </c>
-      <c r="J57">
+      <c r="P57" s="2">
         <v>12</v>
       </c>
-      <c r="L57">
+      <c r="R57" s="3">
+        <v>36</v>
+      </c>
+      <c r="S57" s="3">
+        <v>44</v>
+      </c>
+      <c r="U57" s="2">
         <v>4</v>
       </c>
-      <c r="M57">
+      <c r="V57" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X57" s="3">
+        <v>36</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>21</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>13</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
+        <v>37</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45</v>
+      </c>
+      <c r="I58" s="2">
         <v>5</v>
       </c>
-      <c r="G58">
+      <c r="J58" s="2">
         <v>13</v>
       </c>
-      <c r="I58">
+      <c r="L58" s="3">
+        <v>37</v>
+      </c>
+      <c r="M58" s="3">
+        <v>45</v>
+      </c>
+      <c r="O58" s="2">
         <v>5</v>
       </c>
-      <c r="J58">
+      <c r="P58" s="2">
         <v>13</v>
       </c>
-      <c r="L58">
+      <c r="R58" s="3">
+        <v>37</v>
+      </c>
+      <c r="S58" s="3">
+        <v>45</v>
+      </c>
+      <c r="U58" s="2">
         <v>5</v>
       </c>
-      <c r="M58">
+      <c r="V58" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X58" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>14</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
+        <v>38</v>
+      </c>
+      <c r="G59" s="3">
+        <v>46</v>
+      </c>
+      <c r="I59" s="2">
         <v>6</v>
       </c>
-      <c r="G59">
+      <c r="J59" s="2">
         <v>14</v>
       </c>
-      <c r="I59">
+      <c r="L59" s="3">
+        <v>38</v>
+      </c>
+      <c r="M59" s="3">
+        <v>46</v>
+      </c>
+      <c r="O59" s="2">
         <v>6</v>
       </c>
-      <c r="J59">
+      <c r="P59" s="2">
         <v>14</v>
       </c>
-      <c r="L59">
+      <c r="R59" s="3">
+        <v>38</v>
+      </c>
+      <c r="S59" s="3">
+        <v>46</v>
+      </c>
+      <c r="U59" s="2">
         <v>6</v>
       </c>
-      <c r="M59">
+      <c r="V59" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X59" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>23</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>7</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>15</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
+        <v>39</v>
+      </c>
+      <c r="G60" s="3">
+        <v>47</v>
+      </c>
+      <c r="I60" s="2">
         <v>7</v>
       </c>
-      <c r="G60">
+      <c r="J60" s="2">
         <v>15</v>
       </c>
-      <c r="I60">
+      <c r="L60" s="3">
+        <v>39</v>
+      </c>
+      <c r="M60" s="3">
+        <v>47</v>
+      </c>
+      <c r="O60" s="2">
         <v>7</v>
       </c>
-      <c r="J60">
+      <c r="P60" s="2">
         <v>15</v>
       </c>
-      <c r="L60">
+      <c r="R60" s="3">
+        <v>39</v>
+      </c>
+      <c r="S60" s="3">
+        <v>47</v>
+      </c>
+      <c r="U60" s="2">
         <v>7</v>
       </c>
-      <c r="M60">
+      <c r="V60" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
+      <c r="X60" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="D62" s="2"/>
+      <c r="F62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="I62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" s="2"/>
+      <c r="L62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="O62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L62" t="s">
+      <c r="P62" s="2"/>
+      <c r="R62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="U62" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="V62" s="2"/>
+      <c r="X62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>24</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>16</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>24</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
+        <v>48</v>
+      </c>
+      <c r="G64" s="3">
+        <v>56</v>
+      </c>
+      <c r="I64" s="2">
         <v>16</v>
       </c>
-      <c r="G64">
+      <c r="J64" s="2">
         <v>24</v>
       </c>
-      <c r="I64">
+      <c r="L64" s="3">
+        <v>48</v>
+      </c>
+      <c r="M64" s="3">
+        <v>56</v>
+      </c>
+      <c r="O64" s="2">
         <v>16</v>
       </c>
-      <c r="J64">
+      <c r="P64" s="2">
         <v>24</v>
       </c>
-      <c r="L64">
+      <c r="R64" s="3">
+        <v>48</v>
+      </c>
+      <c r="S64" s="3">
+        <v>56</v>
+      </c>
+      <c r="U64" s="2">
         <v>16</v>
       </c>
-      <c r="M64">
+      <c r="V64" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X64" s="3">
+        <v>48</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>25</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>17</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>25</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
+        <v>49</v>
+      </c>
+      <c r="G65" s="3">
+        <v>57</v>
+      </c>
+      <c r="I65" s="2">
         <v>17</v>
       </c>
-      <c r="G65">
+      <c r="J65" s="2">
         <v>25</v>
       </c>
-      <c r="I65">
+      <c r="L65" s="3">
+        <v>49</v>
+      </c>
+      <c r="M65" s="3">
+        <v>57</v>
+      </c>
+      <c r="O65" s="2">
         <v>17</v>
       </c>
-      <c r="J65">
+      <c r="P65" s="2">
         <v>25</v>
       </c>
-      <c r="L65">
+      <c r="R65" s="3">
+        <v>49</v>
+      </c>
+      <c r="S65" s="3">
+        <v>57</v>
+      </c>
+      <c r="U65" s="2">
         <v>17</v>
       </c>
-      <c r="M65">
+      <c r="V65" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X65" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>26</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>26</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
+        <v>50</v>
+      </c>
+      <c r="G66" s="3">
+        <v>58</v>
+      </c>
+      <c r="I66" s="2">
         <v>18</v>
       </c>
-      <c r="G66">
+      <c r="J66" s="2">
         <v>26</v>
       </c>
-      <c r="I66">
+      <c r="L66" s="3">
+        <v>50</v>
+      </c>
+      <c r="M66" s="3">
+        <v>58</v>
+      </c>
+      <c r="O66" s="2">
         <v>18</v>
       </c>
-      <c r="J66">
+      <c r="P66" s="2">
         <v>26</v>
       </c>
-      <c r="L66">
+      <c r="R66" s="3">
+        <v>50</v>
+      </c>
+      <c r="S66" s="3">
+        <v>58</v>
+      </c>
+      <c r="U66" s="2">
         <v>18</v>
       </c>
-      <c r="M66">
+      <c r="V66" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X66" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>27</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>19</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>27</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
+        <v>51</v>
+      </c>
+      <c r="G67" s="3">
+        <v>59</v>
+      </c>
+      <c r="I67" s="2">
         <v>19</v>
       </c>
-      <c r="G67">
+      <c r="J67" s="2">
         <v>27</v>
       </c>
-      <c r="I67">
+      <c r="L67" s="3">
+        <v>51</v>
+      </c>
+      <c r="M67" s="3">
+        <v>59</v>
+      </c>
+      <c r="O67" s="2">
         <v>19</v>
       </c>
-      <c r="J67">
+      <c r="P67" s="2">
         <v>27</v>
       </c>
-      <c r="L67">
+      <c r="R67" s="3">
+        <v>51</v>
+      </c>
+      <c r="S67" s="3">
+        <v>59</v>
+      </c>
+      <c r="U67" s="2">
         <v>19</v>
       </c>
-      <c r="M67">
+      <c r="V67" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X67" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>28</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>20</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>28</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
+        <v>52</v>
+      </c>
+      <c r="G68" s="3">
+        <v>60</v>
+      </c>
+      <c r="I68" s="2">
         <v>20</v>
       </c>
-      <c r="G68">
+      <c r="J68" s="2">
         <v>28</v>
       </c>
-      <c r="I68">
+      <c r="L68" s="3">
+        <v>52</v>
+      </c>
+      <c r="M68" s="3">
+        <v>60</v>
+      </c>
+      <c r="O68" s="2">
         <v>20</v>
       </c>
-      <c r="J68">
+      <c r="P68" s="2">
         <v>28</v>
       </c>
-      <c r="L68">
+      <c r="R68" s="3">
+        <v>52</v>
+      </c>
+      <c r="S68" s="3">
+        <v>60</v>
+      </c>
+      <c r="U68" s="2">
         <v>20</v>
       </c>
-      <c r="M68">
+      <c r="V68" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X68" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>29</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>21</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>29</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
+        <v>53</v>
+      </c>
+      <c r="G69" s="3">
+        <v>61</v>
+      </c>
+      <c r="I69" s="2">
         <v>21</v>
       </c>
-      <c r="G69">
+      <c r="J69" s="2">
         <v>29</v>
       </c>
-      <c r="I69">
+      <c r="L69" s="3">
+        <v>53</v>
+      </c>
+      <c r="M69" s="3">
+        <v>61</v>
+      </c>
+      <c r="O69" s="2">
         <v>21</v>
       </c>
-      <c r="J69">
+      <c r="P69" s="2">
         <v>29</v>
       </c>
-      <c r="L69">
+      <c r="R69" s="3">
+        <v>53</v>
+      </c>
+      <c r="S69" s="3">
+        <v>61</v>
+      </c>
+      <c r="U69" s="2">
         <v>21</v>
       </c>
-      <c r="M69">
+      <c r="V69" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X69" s="3">
+        <v>53</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>30</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>22</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>30</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
+        <v>54</v>
+      </c>
+      <c r="G70" s="3">
+        <v>62</v>
+      </c>
+      <c r="I70" s="2">
         <v>22</v>
       </c>
-      <c r="G70">
+      <c r="J70" s="2">
         <v>30</v>
       </c>
-      <c r="I70">
+      <c r="L70" s="3">
+        <v>54</v>
+      </c>
+      <c r="M70" s="3">
+        <v>62</v>
+      </c>
+      <c r="O70" s="2">
         <v>22</v>
       </c>
-      <c r="J70">
+      <c r="P70" s="2">
         <v>30</v>
       </c>
-      <c r="L70">
+      <c r="R70" s="3">
+        <v>54</v>
+      </c>
+      <c r="S70" s="3">
+        <v>62</v>
+      </c>
+      <c r="U70" s="2">
         <v>22</v>
       </c>
-      <c r="M70">
+      <c r="V70" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X70" s="3">
+        <v>54</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>31</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>23</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>31</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
+        <v>55</v>
+      </c>
+      <c r="G71" s="3">
+        <v>63</v>
+      </c>
+      <c r="I71" s="2">
         <v>23</v>
       </c>
-      <c r="G71">
+      <c r="J71" s="2">
         <v>31</v>
       </c>
-      <c r="I71">
+      <c r="L71" s="3">
+        <v>55</v>
+      </c>
+      <c r="M71" s="3">
+        <v>63</v>
+      </c>
+      <c r="O71" s="2">
         <v>23</v>
       </c>
-      <c r="J71">
+      <c r="P71" s="2">
         <v>31</v>
       </c>
-      <c r="L71">
+      <c r="R71" s="3">
+        <v>55</v>
+      </c>
+      <c r="S71" s="3">
+        <v>63</v>
+      </c>
+      <c r="U71" s="2">
         <v>23</v>
       </c>
-      <c r="M71">
+      <c r="V71" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
+      <c r="X71" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I73" t="s">
+      <c r="L73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
+      <c r="P73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L73" t="s">
+      <c r="R73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
+      <c r="V73" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>32</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>0</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
+        <v>32</v>
+      </c>
+      <c r="G75" s="3">
+        <v>40</v>
+      </c>
+      <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="J75" s="2">
         <v>8</v>
       </c>
-      <c r="I75">
+      <c r="L75" s="3">
+        <v>32</v>
+      </c>
+      <c r="M75" s="3">
+        <v>40</v>
+      </c>
+      <c r="O75" s="2">
         <v>0</v>
       </c>
-      <c r="J75">
+      <c r="P75" s="2">
         <v>8</v>
       </c>
-      <c r="L75">
+      <c r="R75" s="3">
+        <v>32</v>
+      </c>
+      <c r="S75" s="3">
+        <v>40</v>
+      </c>
+      <c r="U75" s="2">
         <v>0</v>
       </c>
-      <c r="M75">
+      <c r="V75" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X75" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>33</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>9</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
+        <v>33</v>
+      </c>
+      <c r="G76" s="3">
+        <v>41</v>
+      </c>
+      <c r="I76" s="2">
         <v>1</v>
       </c>
-      <c r="G76">
+      <c r="J76" s="2">
         <v>9</v>
       </c>
-      <c r="I76">
+      <c r="L76" s="3">
+        <v>33</v>
+      </c>
+      <c r="M76" s="3">
+        <v>41</v>
+      </c>
+      <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="J76">
+      <c r="P76" s="2">
         <v>9</v>
       </c>
-      <c r="L76">
+      <c r="R76" s="3">
+        <v>33</v>
+      </c>
+      <c r="S76" s="3">
+        <v>41</v>
+      </c>
+      <c r="U76" s="2">
         <v>1</v>
       </c>
-      <c r="M76">
+      <c r="V76" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X76" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>34</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>2</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>10</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
+        <v>34</v>
+      </c>
+      <c r="G77" s="3">
+        <v>42</v>
+      </c>
+      <c r="I77" s="2">
         <v>2</v>
       </c>
-      <c r="G77">
+      <c r="J77" s="2">
         <v>10</v>
       </c>
-      <c r="I77">
+      <c r="L77" s="3">
+        <v>34</v>
+      </c>
+      <c r="M77" s="3">
+        <v>42</v>
+      </c>
+      <c r="O77" s="2">
         <v>2</v>
       </c>
-      <c r="J77">
+      <c r="P77" s="2">
         <v>10</v>
       </c>
-      <c r="L77">
+      <c r="R77" s="3">
+        <v>34</v>
+      </c>
+      <c r="S77" s="3">
+        <v>42</v>
+      </c>
+      <c r="U77" s="2">
         <v>2</v>
       </c>
-      <c r="M77">
+      <c r="V77" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X77" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>35</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>3</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>11</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
+        <v>35</v>
+      </c>
+      <c r="G78" s="3">
+        <v>43</v>
+      </c>
+      <c r="I78" s="2">
         <v>3</v>
       </c>
-      <c r="G78">
+      <c r="J78" s="2">
         <v>11</v>
       </c>
-      <c r="I78">
+      <c r="L78" s="3">
+        <v>35</v>
+      </c>
+      <c r="M78" s="3">
+        <v>43</v>
+      </c>
+      <c r="O78" s="2">
         <v>3</v>
       </c>
-      <c r="J78">
+      <c r="P78" s="2">
         <v>11</v>
       </c>
-      <c r="L78">
+      <c r="R78" s="3">
+        <v>35</v>
+      </c>
+      <c r="S78" s="3">
+        <v>43</v>
+      </c>
+      <c r="U78" s="2">
         <v>3</v>
       </c>
-      <c r="M78">
+      <c r="V78" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X78" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>36</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>4</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>12</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
+        <v>36</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44</v>
+      </c>
+      <c r="I79" s="2">
         <v>4</v>
       </c>
-      <c r="G79">
+      <c r="J79" s="2">
         <v>12</v>
       </c>
-      <c r="I79">
+      <c r="L79" s="3">
+        <v>36</v>
+      </c>
+      <c r="M79" s="3">
+        <v>44</v>
+      </c>
+      <c r="O79" s="2">
         <v>4</v>
       </c>
-      <c r="J79">
+      <c r="P79" s="2">
         <v>12</v>
       </c>
-      <c r="L79">
+      <c r="R79" s="3">
+        <v>36</v>
+      </c>
+      <c r="S79" s="3">
+        <v>44</v>
+      </c>
+      <c r="U79" s="2">
         <v>4</v>
       </c>
-      <c r="M79">
+      <c r="V79" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X79" s="3">
+        <v>36</v>
+      </c>
+      <c r="Y79" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>37</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>13</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
+        <v>37</v>
+      </c>
+      <c r="G80" s="3">
+        <v>45</v>
+      </c>
+      <c r="I80" s="2">
         <v>5</v>
       </c>
-      <c r="G80">
+      <c r="J80" s="2">
         <v>13</v>
       </c>
-      <c r="I80">
+      <c r="L80" s="3">
+        <v>37</v>
+      </c>
+      <c r="M80" s="3">
+        <v>45</v>
+      </c>
+      <c r="O80" s="2">
         <v>5</v>
       </c>
-      <c r="J80">
+      <c r="P80" s="2">
         <v>13</v>
       </c>
-      <c r="L80">
+      <c r="R80" s="3">
+        <v>37</v>
+      </c>
+      <c r="S80" s="3">
+        <v>45</v>
+      </c>
+      <c r="U80" s="2">
         <v>5</v>
       </c>
-      <c r="M80">
+      <c r="V80" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X80" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>38</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>14</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
+        <v>38</v>
+      </c>
+      <c r="G81" s="3">
+        <v>46</v>
+      </c>
+      <c r="I81" s="2">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="J81" s="2">
         <v>14</v>
       </c>
-      <c r="I81">
+      <c r="L81" s="3">
+        <v>38</v>
+      </c>
+      <c r="M81" s="3">
+        <v>46</v>
+      </c>
+      <c r="O81" s="2">
         <v>6</v>
       </c>
-      <c r="J81">
+      <c r="P81" s="2">
         <v>14</v>
       </c>
-      <c r="L81">
+      <c r="R81" s="3">
+        <v>38</v>
+      </c>
+      <c r="S81" s="3">
+        <v>46</v>
+      </c>
+      <c r="U81" s="2">
         <v>6</v>
       </c>
-      <c r="M81">
+      <c r="V81" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X81" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>39</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>7</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>15</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
+        <v>39</v>
+      </c>
+      <c r="G82" s="3">
+        <v>47</v>
+      </c>
+      <c r="I82" s="2">
         <v>7</v>
       </c>
-      <c r="G82">
+      <c r="J82" s="2">
         <v>15</v>
       </c>
-      <c r="I82">
+      <c r="L82" s="3">
+        <v>39</v>
+      </c>
+      <c r="M82" s="3">
+        <v>47</v>
+      </c>
+      <c r="O82" s="2">
         <v>7</v>
       </c>
-      <c r="J82">
+      <c r="P82" s="2">
         <v>15</v>
       </c>
-      <c r="L82">
+      <c r="R82" s="3">
+        <v>39</v>
+      </c>
+      <c r="S82" s="3">
+        <v>47</v>
+      </c>
+      <c r="U82" s="2">
         <v>7</v>
       </c>
-      <c r="M82">
+      <c r="V82" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
+      <c r="X82" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
+      <c r="D84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="I84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" s="2"/>
+      <c r="L84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="O84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L84" t="s">
+      <c r="P84" s="2"/>
+      <c r="R84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="U84" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="V84" s="2"/>
+      <c r="X84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>40</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>16</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>24</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
+        <v>48</v>
+      </c>
+      <c r="G86" s="3">
+        <v>56</v>
+      </c>
+      <c r="I86" s="2">
         <v>16</v>
       </c>
-      <c r="G86">
+      <c r="J86" s="2">
         <v>24</v>
       </c>
-      <c r="I86">
+      <c r="L86" s="3">
+        <v>48</v>
+      </c>
+      <c r="M86" s="3">
+        <v>56</v>
+      </c>
+      <c r="O86" s="2">
         <v>16</v>
       </c>
-      <c r="J86">
+      <c r="P86" s="2">
         <v>24</v>
       </c>
-      <c r="L86">
+      <c r="R86" s="3">
+        <v>48</v>
+      </c>
+      <c r="S86" s="3">
+        <v>56</v>
+      </c>
+      <c r="U86" s="2">
         <v>16</v>
       </c>
-      <c r="M86">
+      <c r="V86" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X86" s="3">
+        <v>48</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>41</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>17</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>25</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
+        <v>49</v>
+      </c>
+      <c r="G87" s="3">
+        <v>57</v>
+      </c>
+      <c r="I87" s="2">
         <v>17</v>
       </c>
-      <c r="G87">
+      <c r="J87" s="2">
         <v>25</v>
       </c>
-      <c r="I87">
+      <c r="L87" s="3">
+        <v>49</v>
+      </c>
+      <c r="M87" s="3">
+        <v>57</v>
+      </c>
+      <c r="O87" s="2">
         <v>17</v>
       </c>
-      <c r="J87">
+      <c r="P87" s="2">
         <v>25</v>
       </c>
-      <c r="L87">
+      <c r="R87" s="3">
+        <v>49</v>
+      </c>
+      <c r="S87" s="3">
+        <v>57</v>
+      </c>
+      <c r="U87" s="2">
         <v>17</v>
       </c>
-      <c r="M87">
+      <c r="V87" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X87" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>42</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>18</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>26</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
+        <v>50</v>
+      </c>
+      <c r="G88" s="3">
+        <v>58</v>
+      </c>
+      <c r="I88" s="2">
         <v>18</v>
       </c>
-      <c r="G88">
+      <c r="J88" s="2">
         <v>26</v>
       </c>
-      <c r="I88">
+      <c r="L88" s="3">
+        <v>50</v>
+      </c>
+      <c r="M88" s="3">
+        <v>58</v>
+      </c>
+      <c r="O88" s="2">
         <v>18</v>
       </c>
-      <c r="J88">
+      <c r="P88" s="2">
         <v>26</v>
       </c>
-      <c r="L88">
+      <c r="R88" s="3">
+        <v>50</v>
+      </c>
+      <c r="S88" s="3">
+        <v>58</v>
+      </c>
+      <c r="U88" s="2">
         <v>18</v>
       </c>
-      <c r="M88">
+      <c r="V88" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X88" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>43</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>19</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>27</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
+        <v>51</v>
+      </c>
+      <c r="G89" s="3">
+        <v>59</v>
+      </c>
+      <c r="I89" s="2">
         <v>19</v>
       </c>
-      <c r="G89">
+      <c r="J89" s="2">
         <v>27</v>
       </c>
-      <c r="I89">
+      <c r="L89" s="3">
+        <v>51</v>
+      </c>
+      <c r="M89" s="3">
+        <v>59</v>
+      </c>
+      <c r="O89" s="2">
         <v>19</v>
       </c>
-      <c r="J89">
+      <c r="P89" s="2">
         <v>27</v>
       </c>
-      <c r="L89">
+      <c r="R89" s="3">
+        <v>51</v>
+      </c>
+      <c r="S89" s="3">
+        <v>59</v>
+      </c>
+      <c r="U89" s="2">
         <v>19</v>
       </c>
-      <c r="M89">
+      <c r="V89" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X89" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>44</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>20</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>28</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
+        <v>52</v>
+      </c>
+      <c r="G90" s="3">
+        <v>60</v>
+      </c>
+      <c r="I90" s="2">
         <v>20</v>
       </c>
-      <c r="G90">
+      <c r="J90" s="2">
         <v>28</v>
       </c>
-      <c r="I90">
+      <c r="L90" s="3">
+        <v>52</v>
+      </c>
+      <c r="M90" s="3">
+        <v>60</v>
+      </c>
+      <c r="O90" s="2">
         <v>20</v>
       </c>
-      <c r="J90">
+      <c r="P90" s="2">
         <v>28</v>
       </c>
-      <c r="L90">
+      <c r="R90" s="3">
+        <v>52</v>
+      </c>
+      <c r="S90" s="3">
+        <v>60</v>
+      </c>
+      <c r="U90" s="2">
         <v>20</v>
       </c>
-      <c r="M90">
+      <c r="V90" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X90" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>45</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>21</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>29</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
+        <v>53</v>
+      </c>
+      <c r="G91" s="3">
+        <v>61</v>
+      </c>
+      <c r="I91" s="2">
         <v>21</v>
       </c>
-      <c r="G91">
+      <c r="J91" s="2">
         <v>29</v>
       </c>
-      <c r="I91">
+      <c r="L91" s="3">
+        <v>53</v>
+      </c>
+      <c r="M91" s="3">
+        <v>61</v>
+      </c>
+      <c r="O91" s="2">
         <v>21</v>
       </c>
-      <c r="J91">
+      <c r="P91" s="2">
         <v>29</v>
       </c>
-      <c r="L91">
+      <c r="R91" s="3">
+        <v>53</v>
+      </c>
+      <c r="S91" s="3">
+        <v>61</v>
+      </c>
+      <c r="U91" s="2">
         <v>21</v>
       </c>
-      <c r="M91">
+      <c r="V91" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X91" s="3">
+        <v>53</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>46</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>22</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>30</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
+        <v>54</v>
+      </c>
+      <c r="G92" s="3">
+        <v>62</v>
+      </c>
+      <c r="I92" s="2">
         <v>22</v>
       </c>
-      <c r="G92">
+      <c r="J92" s="2">
         <v>30</v>
       </c>
-      <c r="I92">
+      <c r="L92" s="3">
+        <v>54</v>
+      </c>
+      <c r="M92" s="3">
+        <v>62</v>
+      </c>
+      <c r="O92" s="2">
         <v>22</v>
       </c>
-      <c r="J92">
+      <c r="P92" s="2">
         <v>30</v>
       </c>
-      <c r="L92">
+      <c r="R92" s="3">
+        <v>54</v>
+      </c>
+      <c r="S92" s="3">
+        <v>62</v>
+      </c>
+      <c r="U92" s="2">
         <v>22</v>
       </c>
-      <c r="M92">
+      <c r="V92" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X92" s="3">
+        <v>54</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>47</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>23</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>31</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
+        <v>55</v>
+      </c>
+      <c r="G93" s="3">
+        <v>63</v>
+      </c>
+      <c r="I93" s="2">
         <v>23</v>
       </c>
-      <c r="G93">
+      <c r="J93" s="2">
         <v>31</v>
       </c>
-      <c r="I93">
+      <c r="L93" s="3">
+        <v>55</v>
+      </c>
+      <c r="M93" s="3">
+        <v>63</v>
+      </c>
+      <c r="O93" s="2">
         <v>23</v>
       </c>
-      <c r="J93">
+      <c r="P93" s="2">
         <v>31</v>
       </c>
-      <c r="L93">
+      <c r="R93" s="3">
+        <v>55</v>
+      </c>
+      <c r="S93" s="3">
+        <v>63</v>
+      </c>
+      <c r="U93" s="2">
         <v>23</v>
       </c>
-      <c r="M93">
+      <c r="V93" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
+      <c r="X93" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G97" t="s">
+      <c r="J97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I97" t="s">
+      <c r="L97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J97" t="s">
+      <c r="P97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L97" t="s">
+      <c r="R97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
+      <c r="V97" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>48</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>0</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>8</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
+        <v>32</v>
+      </c>
+      <c r="G99" s="3">
+        <v>40</v>
+      </c>
+      <c r="I99" s="2">
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="J99" s="2">
         <v>8</v>
       </c>
-      <c r="I99">
+      <c r="L99" s="3">
+        <v>32</v>
+      </c>
+      <c r="M99" s="3">
+        <v>40</v>
+      </c>
+      <c r="O99" s="2">
         <v>0</v>
       </c>
-      <c r="J99">
+      <c r="P99" s="2">
         <v>8</v>
       </c>
-      <c r="L99">
+      <c r="R99" s="3">
+        <v>32</v>
+      </c>
+      <c r="S99" s="3">
+        <v>40</v>
+      </c>
+      <c r="U99" s="2">
         <v>0</v>
       </c>
-      <c r="M99">
+      <c r="V99" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X99" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>49</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>9</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
+        <v>33</v>
+      </c>
+      <c r="G100" s="3">
+        <v>41</v>
+      </c>
+      <c r="I100" s="2">
         <v>1</v>
       </c>
-      <c r="G100">
+      <c r="J100" s="2">
         <v>9</v>
       </c>
-      <c r="I100">
+      <c r="L100" s="3">
+        <v>33</v>
+      </c>
+      <c r="M100" s="3">
+        <v>41</v>
+      </c>
+      <c r="O100" s="2">
         <v>1</v>
       </c>
-      <c r="J100">
+      <c r="P100" s="2">
         <v>9</v>
       </c>
-      <c r="L100">
+      <c r="R100" s="3">
+        <v>33</v>
+      </c>
+      <c r="S100" s="3">
+        <v>41</v>
+      </c>
+      <c r="U100" s="2">
         <v>1</v>
       </c>
-      <c r="M100">
+      <c r="V100" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X100" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>50</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>2</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>10</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
+        <v>34</v>
+      </c>
+      <c r="G101" s="3">
+        <v>42</v>
+      </c>
+      <c r="I101" s="2">
         <v>2</v>
       </c>
-      <c r="G101">
+      <c r="J101" s="2">
         <v>10</v>
       </c>
-      <c r="I101">
+      <c r="L101" s="3">
+        <v>34</v>
+      </c>
+      <c r="M101" s="3">
+        <v>42</v>
+      </c>
+      <c r="O101" s="2">
         <v>2</v>
       </c>
-      <c r="J101">
+      <c r="P101" s="2">
         <v>10</v>
       </c>
-      <c r="L101">
+      <c r="R101" s="3">
+        <v>34</v>
+      </c>
+      <c r="S101" s="3">
+        <v>42</v>
+      </c>
+      <c r="U101" s="2">
         <v>2</v>
       </c>
-      <c r="M101">
+      <c r="V101" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X101" s="3">
+        <v>34</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>51</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>3</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>11</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
+        <v>35</v>
+      </c>
+      <c r="G102" s="3">
+        <v>43</v>
+      </c>
+      <c r="I102" s="2">
         <v>3</v>
       </c>
-      <c r="G102">
+      <c r="J102" s="2">
         <v>11</v>
       </c>
-      <c r="I102">
+      <c r="L102" s="3">
+        <v>35</v>
+      </c>
+      <c r="M102" s="3">
+        <v>43</v>
+      </c>
+      <c r="O102" s="2">
         <v>3</v>
       </c>
-      <c r="J102">
+      <c r="P102" s="2">
         <v>11</v>
       </c>
-      <c r="L102">
+      <c r="R102" s="3">
+        <v>35</v>
+      </c>
+      <c r="S102" s="3">
+        <v>43</v>
+      </c>
+      <c r="U102" s="2">
         <v>3</v>
       </c>
-      <c r="M102">
+      <c r="V102" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X102" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>52</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>12</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
+        <v>36</v>
+      </c>
+      <c r="G103" s="3">
+        <v>44</v>
+      </c>
+      <c r="I103" s="2">
         <v>4</v>
       </c>
-      <c r="G103">
+      <c r="J103" s="2">
         <v>12</v>
       </c>
-      <c r="I103">
+      <c r="L103" s="3">
+        <v>36</v>
+      </c>
+      <c r="M103" s="3">
+        <v>44</v>
+      </c>
+      <c r="O103" s="2">
         <v>4</v>
       </c>
-      <c r="J103">
+      <c r="P103" s="2">
         <v>12</v>
       </c>
-      <c r="L103">
+      <c r="R103" s="3">
+        <v>36</v>
+      </c>
+      <c r="S103" s="3">
+        <v>44</v>
+      </c>
+      <c r="U103" s="2">
         <v>4</v>
       </c>
-      <c r="M103">
+      <c r="V103" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X103" s="3">
+        <v>36</v>
+      </c>
+      <c r="Y103" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>53</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>5</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>13</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
+        <v>37</v>
+      </c>
+      <c r="G104" s="3">
+        <v>45</v>
+      </c>
+      <c r="I104" s="2">
         <v>5</v>
       </c>
-      <c r="G104">
+      <c r="J104" s="2">
         <v>13</v>
       </c>
-      <c r="I104">
+      <c r="L104" s="3">
+        <v>37</v>
+      </c>
+      <c r="M104" s="3">
+        <v>45</v>
+      </c>
+      <c r="O104" s="2">
         <v>5</v>
       </c>
-      <c r="J104">
+      <c r="P104" s="2">
         <v>13</v>
       </c>
-      <c r="L104">
+      <c r="R104" s="3">
+        <v>37</v>
+      </c>
+      <c r="S104" s="3">
+        <v>45</v>
+      </c>
+      <c r="U104" s="2">
         <v>5</v>
       </c>
-      <c r="M104">
+      <c r="V104" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X104" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>54</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>6</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>14</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
+        <v>38</v>
+      </c>
+      <c r="G105" s="3">
+        <v>46</v>
+      </c>
+      <c r="I105" s="2">
         <v>6</v>
       </c>
-      <c r="G105">
+      <c r="J105" s="2">
         <v>14</v>
       </c>
-      <c r="I105">
+      <c r="L105" s="3">
+        <v>38</v>
+      </c>
+      <c r="M105" s="3">
+        <v>46</v>
+      </c>
+      <c r="O105" s="2">
         <v>6</v>
       </c>
-      <c r="J105">
+      <c r="P105" s="2">
         <v>14</v>
       </c>
-      <c r="L105">
+      <c r="R105" s="3">
+        <v>38</v>
+      </c>
+      <c r="S105" s="3">
+        <v>46</v>
+      </c>
+      <c r="U105" s="2">
         <v>6</v>
       </c>
-      <c r="M105">
+      <c r="V105" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X105" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y105" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>55</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <v>7</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>15</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
+        <v>39</v>
+      </c>
+      <c r="G106" s="3">
+        <v>47</v>
+      </c>
+      <c r="I106" s="2">
         <v>7</v>
       </c>
-      <c r="G106">
+      <c r="J106" s="2">
         <v>15</v>
       </c>
-      <c r="I106">
+      <c r="L106" s="3">
+        <v>39</v>
+      </c>
+      <c r="M106" s="3">
+        <v>47</v>
+      </c>
+      <c r="O106" s="2">
         <v>7</v>
       </c>
-      <c r="J106">
+      <c r="P106" s="2">
         <v>15</v>
       </c>
-      <c r="L106">
+      <c r="R106" s="3">
+        <v>39</v>
+      </c>
+      <c r="S106" s="3">
+        <v>47</v>
+      </c>
+      <c r="U106" s="2">
         <v>7</v>
       </c>
-      <c r="M106">
+      <c r="V106" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
+      <c r="X106" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y106" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F108" t="s">
+      <c r="D108" s="2"/>
+      <c r="F108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="I108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" s="2"/>
+      <c r="L108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" s="3"/>
+      <c r="O108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L108" t="s">
+      <c r="P108" s="2"/>
+      <c r="R108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S108" s="3"/>
+      <c r="U108" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="V108" s="2"/>
+      <c r="X108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>56</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>16</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>24</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
+        <v>48</v>
+      </c>
+      <c r="G110" s="3">
+        <v>56</v>
+      </c>
+      <c r="I110" s="2">
         <v>16</v>
       </c>
-      <c r="G110">
+      <c r="J110" s="2">
         <v>24</v>
       </c>
-      <c r="I110">
+      <c r="L110" s="3">
+        <v>48</v>
+      </c>
+      <c r="M110" s="3">
+        <v>56</v>
+      </c>
+      <c r="O110" s="2">
         <v>16</v>
       </c>
-      <c r="J110">
+      <c r="P110" s="2">
         <v>24</v>
       </c>
-      <c r="L110">
+      <c r="R110" s="3">
+        <v>48</v>
+      </c>
+      <c r="S110" s="3">
+        <v>56</v>
+      </c>
+      <c r="U110" s="2">
         <v>16</v>
       </c>
-      <c r="M110">
+      <c r="V110" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X110" s="3">
+        <v>48</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>57</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>17</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>25</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
+        <v>49</v>
+      </c>
+      <c r="G111" s="3">
+        <v>57</v>
+      </c>
+      <c r="I111" s="2">
         <v>17</v>
       </c>
-      <c r="G111">
+      <c r="J111" s="2">
         <v>25</v>
       </c>
-      <c r="I111">
+      <c r="L111" s="3">
+        <v>49</v>
+      </c>
+      <c r="M111" s="3">
+        <v>57</v>
+      </c>
+      <c r="O111" s="2">
         <v>17</v>
       </c>
-      <c r="J111">
+      <c r="P111" s="2">
         <v>25</v>
       </c>
-      <c r="L111">
+      <c r="R111" s="3">
+        <v>49</v>
+      </c>
+      <c r="S111" s="3">
+        <v>57</v>
+      </c>
+      <c r="U111" s="2">
         <v>17</v>
       </c>
-      <c r="M111">
+      <c r="V111" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X111" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y111" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>58</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>18</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>26</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
+        <v>50</v>
+      </c>
+      <c r="G112" s="3">
+        <v>58</v>
+      </c>
+      <c r="I112" s="2">
         <v>18</v>
       </c>
-      <c r="G112">
+      <c r="J112" s="2">
         <v>26</v>
       </c>
-      <c r="I112">
+      <c r="L112" s="3">
+        <v>50</v>
+      </c>
+      <c r="M112" s="3">
+        <v>58</v>
+      </c>
+      <c r="O112" s="2">
         <v>18</v>
       </c>
-      <c r="J112">
+      <c r="P112" s="2">
         <v>26</v>
       </c>
-      <c r="L112">
+      <c r="R112" s="3">
+        <v>50</v>
+      </c>
+      <c r="S112" s="3">
+        <v>58</v>
+      </c>
+      <c r="U112" s="2">
         <v>18</v>
       </c>
-      <c r="M112">
+      <c r="V112" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X112" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>59</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>19</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>27</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
+        <v>51</v>
+      </c>
+      <c r="G113" s="3">
+        <v>59</v>
+      </c>
+      <c r="I113" s="2">
         <v>19</v>
       </c>
-      <c r="G113">
+      <c r="J113" s="2">
         <v>27</v>
       </c>
-      <c r="I113">
+      <c r="L113" s="3">
+        <v>51</v>
+      </c>
+      <c r="M113" s="3">
+        <v>59</v>
+      </c>
+      <c r="O113" s="2">
         <v>19</v>
       </c>
-      <c r="J113">
+      <c r="P113" s="2">
         <v>27</v>
       </c>
-      <c r="L113">
+      <c r="R113" s="3">
+        <v>51</v>
+      </c>
+      <c r="S113" s="3">
+        <v>59</v>
+      </c>
+      <c r="U113" s="2">
         <v>19</v>
       </c>
-      <c r="M113">
+      <c r="V113" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X113" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y113" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>60</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>20</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>28</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
+        <v>52</v>
+      </c>
+      <c r="G114" s="3">
+        <v>60</v>
+      </c>
+      <c r="I114" s="2">
         <v>20</v>
       </c>
-      <c r="G114">
+      <c r="J114" s="2">
         <v>28</v>
       </c>
-      <c r="I114">
+      <c r="L114" s="3">
+        <v>52</v>
+      </c>
+      <c r="M114" s="3">
+        <v>60</v>
+      </c>
+      <c r="O114" s="2">
         <v>20</v>
       </c>
-      <c r="J114">
+      <c r="P114" s="2">
         <v>28</v>
       </c>
-      <c r="L114">
+      <c r="R114" s="3">
+        <v>52</v>
+      </c>
+      <c r="S114" s="3">
+        <v>60</v>
+      </c>
+      <c r="U114" s="2">
         <v>20</v>
       </c>
-      <c r="M114">
+      <c r="V114" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X114" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y114" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>61</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>21</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>29</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
+        <v>53</v>
+      </c>
+      <c r="G115" s="3">
+        <v>61</v>
+      </c>
+      <c r="I115" s="2">
         <v>21</v>
       </c>
-      <c r="G115">
+      <c r="J115" s="2">
         <v>29</v>
       </c>
-      <c r="I115">
+      <c r="L115" s="3">
+        <v>53</v>
+      </c>
+      <c r="M115" s="3">
+        <v>61</v>
+      </c>
+      <c r="O115" s="2">
         <v>21</v>
       </c>
-      <c r="J115">
+      <c r="P115" s="2">
         <v>29</v>
       </c>
-      <c r="L115">
+      <c r="R115" s="3">
+        <v>53</v>
+      </c>
+      <c r="S115" s="3">
+        <v>61</v>
+      </c>
+      <c r="U115" s="2">
         <v>21</v>
       </c>
-      <c r="M115">
+      <c r="V115" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X115" s="3">
+        <v>53</v>
+      </c>
+      <c r="Y115" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>62</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>22</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>30</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
+        <v>54</v>
+      </c>
+      <c r="G116" s="3">
+        <v>62</v>
+      </c>
+      <c r="I116" s="2">
         <v>22</v>
       </c>
-      <c r="G116">
+      <c r="J116" s="2">
         <v>30</v>
       </c>
-      <c r="I116">
+      <c r="L116" s="3">
+        <v>54</v>
+      </c>
+      <c r="M116" s="3">
+        <v>62</v>
+      </c>
+      <c r="O116" s="2">
         <v>22</v>
       </c>
-      <c r="J116">
+      <c r="P116" s="2">
         <v>30</v>
       </c>
-      <c r="L116">
+      <c r="R116" s="3">
+        <v>54</v>
+      </c>
+      <c r="S116" s="3">
+        <v>62</v>
+      </c>
+      <c r="U116" s="2">
         <v>22</v>
       </c>
-      <c r="M116">
+      <c r="V116" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X116" s="3">
+        <v>54</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>63</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>23</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>31</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
+        <v>55</v>
+      </c>
+      <c r="G117" s="3">
+        <v>63</v>
+      </c>
+      <c r="I117" s="2">
         <v>23</v>
       </c>
-      <c r="G117">
+      <c r="J117" s="2">
         <v>31</v>
       </c>
-      <c r="I117">
+      <c r="L117" s="3">
+        <v>55</v>
+      </c>
+      <c r="M117" s="3">
+        <v>63</v>
+      </c>
+      <c r="O117" s="2">
         <v>23</v>
       </c>
-      <c r="J117">
+      <c r="P117" s="2">
         <v>31</v>
       </c>
-      <c r="L117">
+      <c r="R117" s="3">
+        <v>55</v>
+      </c>
+      <c r="S117" s="3">
+        <v>63</v>
+      </c>
+      <c r="U117" s="2">
         <v>23</v>
       </c>
-      <c r="M117">
+      <c r="V117" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="X117" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y117" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>19</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>0</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>1</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I119" s="2">
         <v>2</v>
       </c>
-      <c r="G119">
+      <c r="J119" s="2">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="L119" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="M119" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O119" s="2">
         <v>4</v>
       </c>
-      <c r="J119">
+      <c r="P119" s="2">
         <v>5</v>
       </c>
-      <c r="L119">
+      <c r="R119" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="S119" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="U119" s="2">
         <v>6</v>
       </c>
-      <c r="M119">
+      <c r="V119" s="2">
         <v>7</v>
+      </c>
+      <c r="X119" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="Y119" s="3">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>